--- a/01.設計/02.機能仕様書/画面設計.xlsx
+++ b/01.設計/02.機能仕様書/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\02.機能仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF715155-EBED-45A7-A6EA-4DBBBAFD8480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C50B0-CCFE-4885-A12D-CAE970645729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>タグ付けを行う、画像ファイルまたは画像ファイルが格納されたディレクトリを開く</t>
     <rPh sb="2" eb="3">
@@ -129,35 +129,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実際にタグ付けを行う、画面</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Next Image</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Prev Image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -176,58 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次の画像に遷移するボタン</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前の画像に遷移するボタン</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面に戻るボタン</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグを追加するボタン。押下するとタグ追加ウィンドウが表示される</t>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択しているタグを削除するボタン</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -259,32 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定しているタグ一覧を表示するリスト</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像一覧を表示しているリスト</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>付与できるタグを追加できる画面</t>
     <rPh sb="0" eb="2">
       <t>フヨ</t>
@@ -352,6 +250,512 @@
   </si>
   <si>
     <t>OpenDir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「画像ファイル」を示す画像</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリを示す画像</t>
+    <rPh sb="7" eb="8">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像選択ダイアログを開く</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ選択ダイアログを開く</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大画像</t>
+    <rPh sb="0" eb="2">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領域選択をし、タグ付けを行う画像</t>
+    <rPh sb="0" eb="2">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別ID11の現在のポインタ周りを拡大表示している画像</t>
+    <rPh sb="0" eb="2">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のディレクトリ</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在開いているディレクトリまたは開いた画像が存在するディレクトリを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルを読み込むボタン、読み込んだ場合一致する既存の領域があれば領域をつける</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定しているタグ一覧を表示するリスト。選択しているタグは文字が青くなる</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像一覧を表示しているリスト。現在表示中の画像は文字が青くなる</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧ファイルを読み込む</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load Tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Save Tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧をファイルに書き込む</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在座標</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のマウスポインタの座標を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領域選択をし、タグ付けを行う、画面</t>
+    <rPh sb="0" eb="2">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイル選択ダイアログを開く</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイル保存ダイアログを開く</t>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の画像に遷移するボタン。次の画像がない場合は押下できない</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の画像に遷移するボタン。前の画像がない場合は押下できない</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示している画像を変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧ファイルを保存するダイアログを開く</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込むタグを選択するダイアログを開く</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグを追加するボタン</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧から選択中のタグを削除する</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加するタグを入力できる</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧に追加する</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧ダイアログを閉じる</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ追加ダイアログが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tag:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ追加テキストボックスを示すラベル</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Save CSV</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,8 +824,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,13 +840,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,15 +889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180760</xdr:rowOff>
+      <xdr:colOff>67232</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57188</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>69476</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146835</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91890</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -484,8 +912,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="694763" y="416084"/>
-          <a:ext cx="8932249" cy="5771804"/>
+          <a:off x="750791" y="203174"/>
+          <a:ext cx="8932250" cy="5771804"/>
           <a:chOff x="683559" y="225584"/>
           <a:chExt cx="8932248" cy="5771804"/>
         </a:xfrm>
@@ -1036,23 +1464,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>614643</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110379</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>43143</xdr:rowOff>
+      <xdr:rowOff>31939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133073</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5198132</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>218949</xdr:rowOff>
+      <xdr:rowOff>207745</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28">
+        <xdr:cNvPr id="45" name="グループ化 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB8B177-C103-4E22-80D1-075E2103A57D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C09086-0064-413B-A9B8-E582DC404B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1060,18 +1488,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="614643" y="278467"/>
-          <a:ext cx="8953783" cy="5823570"/>
-          <a:chOff x="693084" y="200025"/>
-          <a:chExt cx="8953782" cy="5823570"/>
+          <a:off x="793938" y="267263"/>
+          <a:ext cx="8953782" cy="5823570"/>
+          <a:chOff x="715495" y="312086"/>
+          <a:chExt cx="8953783" cy="5823570"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="2" name="グループ化 1">
+          <xdr:cNvPr id="14" name="グループ化 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519208D1-3CFE-4BC0-A10F-CFF521E0BD7E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE5EE32-0AD5-4955-9D56-FC121B05CCC4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1079,18 +1507,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="693084" y="200025"/>
-            <a:ext cx="8953782" cy="5823570"/>
-            <a:chOff x="687457" y="225584"/>
-            <a:chExt cx="8982917" cy="5893607"/>
+            <a:off x="715495" y="312086"/>
+            <a:ext cx="8953783" cy="5823570"/>
+            <a:chOff x="614643" y="278467"/>
+            <a:chExt cx="8953783" cy="5823570"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="3" name="グループ化 2">
+            <xdr:cNvPr id="29" name="グループ化 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC41D8B-EDAD-41B6-B368-A4D9EFC99D96}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB8B177-C103-4E22-80D1-075E2103A57D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1098,18 +1526,352 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="687457" y="234044"/>
-              <a:ext cx="8975034" cy="5885147"/>
-              <a:chOff x="687457" y="234044"/>
-              <a:chExt cx="8975034" cy="5885147"/>
+              <a:off x="614643" y="278467"/>
+              <a:ext cx="8953783" cy="5823570"/>
+              <a:chOff x="693084" y="200025"/>
+              <a:chExt cx="8953782" cy="5823570"/>
             </a:xfrm>
           </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="2" name="グループ化 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519208D1-3CFE-4BC0-A10F-CFF521E0BD7E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="693084" y="200025"/>
+                <a:ext cx="8953782" cy="5823570"/>
+                <a:chOff x="687457" y="225584"/>
+                <a:chExt cx="8982917" cy="5893607"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="3" name="グループ化 2">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC41D8B-EDAD-41B6-B368-A4D9EFC99D96}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="687457" y="234044"/>
+                  <a:ext cx="8975034" cy="5885147"/>
+                  <a:chOff x="687457" y="234044"/>
+                  <a:chExt cx="8975034" cy="5885147"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="7" name="正方形/長方形 6">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E506668-2860-416C-BC1F-C2EFCBC1853E}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="687457" y="240196"/>
+                    <a:ext cx="8975034" cy="5878995"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="8" name="正方形/長方形 7">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11EEF05-CDE5-4D8E-86C2-EEDFB806F302}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="687457" y="234044"/>
+                    <a:ext cx="8973568" cy="280366"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>AnnotationTool</a:t>
+                    </a:r>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="4" name="正方形/長方形 3">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D106FC53-6DFC-452E-A444-BDC420AE685F}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9337642" y="229914"/>
+                  <a:ext cx="332732" cy="276752"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>×</a:t>
+                  </a:r>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="5" name="正方形/長方形 4">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266E01E2-3BF5-4E9C-B2C2-CAA8A781A1AF}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9035917" y="225584"/>
+                  <a:ext cx="329345" cy="276752"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>□</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="6" name="正方形/長方形 5">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8CEC8F-0421-427D-B6C3-44379C0C7164}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8700019" y="226450"/>
+                  <a:ext cx="332734" cy="276752"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>ー</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="正方形/長方形 6">
+              <xdr:cNvPr id="9" name="正方形/長方形 8">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E506668-2860-416C-BC1F-C2EFCBC1853E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85148A9-12B8-462E-B9E4-234790E7FA4E}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1117,64 +1879,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="687457" y="240196"/>
-                <a:ext cx="8975034" cy="5878995"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="正方形/長方形 7">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11EEF05-CDE5-4D8E-86C2-EEDFB806F302}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="687457" y="234044"/>
-                <a:ext cx="8973568" cy="280366"/>
+                <a:off x="1748118" y="546847"/>
+                <a:ext cx="5971055" cy="359149"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1210,12 +1916,763 @@
               <a:p>
                 <a:pPr algn="l"/>
                 <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>現在開いているディレクトリ名</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="正方形/長方形 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0811EE57-14C0-4FC3-9FC8-03B04E0F107D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1748118" y="960344"/>
+                <a:ext cx="5972510" cy="4979894"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent5">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
+                  <a:t>画像</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="13" name="正方形/長方形 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B144D617-20AD-4976-BE6E-05F617CECE23}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="759759" y="537323"/>
+                <a:ext cx="940734" cy="5390587"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="11" name="グラフィックス 30" descr="開いたフォルダー">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8124D1BC-1A0D-4228-8F25-2C3A42AB1B2C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr/>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                  <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="883584" y="1405219"/>
+                <a:ext cx="731184" cy="760318"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="12" name="グラフィックス 40" descr="イメージ">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4216570-D559-4D4D-A41C-DB086577F1F5}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr/>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                  <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="845484" y="518274"/>
+                <a:ext cx="807384" cy="810744"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="15" name="グラフィックス 14" descr="ダウンロード">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0EF76E-F818-4FA8-8426-F46F7202DF02}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+                <a:extLst>
+                  <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                    <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                  </a:ext>
+                  <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="763121" y="3108512"/>
+                <a:ext cx="912159" cy="908065"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="矢印: 右 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C5B4B-1943-45EB-BA33-2552FA9D9421}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="893109" y="4184837"/>
+                <a:ext cx="693084" cy="553570"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="矢印: 右 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DF979B-CC80-411D-A4E4-E7BF6A77C4E8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="856689" y="5058335"/>
+                <a:ext cx="693084" cy="556372"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="テキスト ボックス 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5511BB64-3C4C-4A97-984C-AE194B408B1F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="807384" y="1214718"/>
+                <a:ext cx="874058" cy="292473"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+                  <a:t>OpenFile</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="テキスト ボックス 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BA40AD-0695-484F-A16C-00C9B150124B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="807384" y="1987363"/>
+                <a:ext cx="874058" cy="292474"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+                  <a:t>OpenDir</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="テキスト ボックス 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B5C774-16AD-4926-A549-2AC06D1E9FD6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="832037" y="3887880"/>
+                <a:ext cx="848844" cy="292474"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+                  <a:t>SaveCSV</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="テキスト ボックス 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5EC379-EECE-45FC-8D4B-75B5275196C1}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="731184" y="4722159"/>
+                <a:ext cx="1026459" cy="289672"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+                  <a:t>Next Image</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="23" name="テキスト ボックス 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C856B2BB-6A98-4DDE-9437-5F12A5789013}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="742389" y="5586132"/>
+                <a:ext cx="1026459" cy="292474"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
+                  <a:t>Prev Image</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="25" name="正方形/長方形 24">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B42E3BF-7850-447E-B500-0A1D9F77C89F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7792473" y="527798"/>
+                <a:ext cx="1815451" cy="1977837"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="26" name="正方形/長方形 25">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FABE28-4065-4A00-9F44-27085259E4D0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7785847" y="2562785"/>
+                <a:ext cx="1793502" cy="2367801"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5438537-FA6C-4CAD-B513-FDE6AD099E85}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8640855" y="911598"/>
+                <a:ext cx="938494" cy="301999"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>AnnotationTool</a:t>
+                  <a:t>Remove Tag</a:t>
                 </a:r>
                 <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
                   <a:solidFill>
@@ -1225,187 +2682,353 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E74AC63-FEF8-4443-846B-49D79DB0E7DF}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7892303" y="911598"/>
+                <a:ext cx="702609" cy="301999"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Add Tag</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="30" name="正方形/長方形 29">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A1BCAA-FC4E-49C0-B33B-52035FAEFC59}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7900147" y="1288674"/>
+                <a:ext cx="1652868" cy="1150286"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>tag1</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>tag2</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                </a:br>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>tag3</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="34" name="正方形/長方形 33">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7EA60E-EBB2-46BD-9EC9-1ED5EBC6CA6E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7887009" y="2634542"/>
+                <a:ext cx="1629877" cy="2195191"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>img1.jpg</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>img2.jpg</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>img3.jpg</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
         </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="正方形/長方形 3">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="図 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D106FC53-6DFC-452E-A444-BDC420AE685F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C6EFE8-3BF7-4D5D-B5F8-7FAF3BD07924}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9337642" y="229914"/>
-              <a:ext cx="332732" cy="276752"/>
+              <a:off x="9390530" y="1389237"/>
+              <a:ext cx="64819" cy="1116000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
           </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>×</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="正方形/長方形 4">
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="図 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266E01E2-3BF5-4E9C-B2C2-CAA8A781A1AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07490497-CE6B-4665-A495-F0BB4F3D2312}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9035917" y="225584"/>
-              <a:ext cx="329345" cy="276752"/>
+              <a:off x="9355307" y="2737693"/>
+              <a:ext cx="51198" cy="2196000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
           </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>□</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="正方形/長方形 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8CEC8F-0421-427D-B6C3-44379C0C7164}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8700019" y="226450"/>
-              <a:ext cx="332734" cy="276752"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>ー</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+        </xdr:pic>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85148A9-12B8-462E-B9E4-234790E7FA4E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD660F9-8EFE-4CEC-B05E-FEF3A5FA5FEB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1413,8 +3036,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1748118" y="546847"/>
-            <a:ext cx="5971055" cy="359149"/>
+            <a:off x="7821705" y="5076263"/>
+            <a:ext cx="1759323" cy="1019736"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1449,151 +3072,31 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>現在開いているディレクトリ名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0811EE57-14C0-4FC3-9FC8-03B04E0F107D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1748118" y="960344"/>
-            <a:ext cx="5972510" cy="4979894"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent5"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
-              <a:t>画像</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B144D617-20AD-4976-BE6E-05F617CECE23}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="759759" y="537323"/>
-            <a:ext cx="940734" cy="5364815"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="グラフィックス 30" descr="開いたフォルダー">
+          <xdr:cNvPr id="31" name="グラフィックス 30" descr="ドキュメント">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8124D1BC-1A0D-4228-8F25-2C3A42AB1B2C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A41261-3C11-42F9-8468-9C49510CA795}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1603,82 +3106,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="883584" y="1405219"/>
-            <a:ext cx="731184" cy="760318"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="グラフィックス 40" descr="イメージ">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4216570-D559-4D4D-A41C-DB086577F1F5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="845484" y="518274"/>
-            <a:ext cx="807384" cy="810744"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="グラフィックス 14" descr="ダウンロード">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0EF76E-F818-4FA8-8426-F46F7202DF02}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="740709" y="2156012"/>
-            <a:ext cx="912159" cy="908065"/>
+            <a:off x="896471" y="2393574"/>
+            <a:ext cx="694765" cy="694765"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1687,116 +3116,10 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="矢印: 右 15">
+          <xdr:cNvPr id="37" name="テキスト ボックス 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C5B4B-1943-45EB-BA33-2552FA9D9421}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="893109" y="3221131"/>
-            <a:ext cx="693084" cy="553570"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="矢印: 右 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DF979B-CC80-411D-A4E4-E7BF6A77C4E8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="845484" y="4038600"/>
-            <a:ext cx="693084" cy="556372"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="テキスト ボックス 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5511BB64-3C4C-4A97-984C-AE194B408B1F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBD5274-3D73-4687-B0C8-98230EEE9418}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1804,16 +3127,13 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="807384" y="1214718"/>
-            <a:ext cx="874058" cy="292473"/>
+            <a:off x="818028" y="3059206"/>
+            <a:ext cx="861646" cy="311496"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -1826,272 +3146,29 @@
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-              <a:t>OpenFile</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" u="sng"/>
+              <a:t>OpenCSV</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" u="sng"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BA40AD-0695-484F-A16C-00C9B150124B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="807384" y="1987363"/>
-            <a:ext cx="874058" cy="292474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-              <a:t>OpenDir</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="テキスト ボックス 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B5C774-16AD-4926-A549-2AC06D1E9FD6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="921684" y="2890557"/>
-            <a:ext cx="521634" cy="292474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-              <a:t>Save</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5EC379-EECE-45FC-8D4B-75B5275196C1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="731184" y="3758453"/>
-            <a:ext cx="1026459" cy="289672"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-              <a:t>Next Image</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキスト ボックス 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C856B2BB-6A98-4DDE-9437-5F12A5789013}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="731184" y="4566397"/>
-            <a:ext cx="1026459" cy="292474"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-              <a:t>Prev Image</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="テキスト ボックス 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B1CB79-E28B-4EA1-B3A7-5D39B402A116}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="883584" y="5602941"/>
-            <a:ext cx="664509" cy="289672"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng"/>
-              <a:t>Menu</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B42E3BF-7850-447E-B500-0A1D9F77C89F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4C0203-5C97-4F45-B6FA-22C3023F35C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2099,122 +3176,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7792473" y="527798"/>
-            <a:ext cx="1815451" cy="1977837"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FABE28-4065-4A00-9F44-27085259E4D0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7785847" y="2562785"/>
-            <a:ext cx="1793502" cy="3377453"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5438537-FA6C-4CAD-B513-FDE6AD099E85}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8640855" y="575422"/>
-            <a:ext cx="938494" cy="301999"/>
+            <a:off x="7900146" y="670674"/>
+            <a:ext cx="739589" cy="301999"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2255,7 +3218,143 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Remove Tag</a:t>
+              <a:t>Load Tag</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D168B03-7654-4C04-AD08-6F9CCE93A6D6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8604436" y="5096997"/>
+            <a:ext cx="940734" cy="973791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>拡大画像</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8550C06-3649-4CE6-A11E-82056848707E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7855322" y="5109881"/>
+            <a:ext cx="694765" cy="537883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>X:100</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Y:120</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2267,10 +3366,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+          <xdr:cNvPr id="43" name="四角形: 角を丸くする 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E74AC63-FEF8-4443-846B-49D79DB0E7DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA92926F-1320-48C4-B0BC-B4D10068E078}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2278,8 +3377,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7881097" y="575422"/>
-            <a:ext cx="702609" cy="301999"/>
+            <a:off x="8684559" y="677399"/>
+            <a:ext cx="907675" cy="301999"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2320,7 +3419,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Add Tag</a:t>
+              <a:t>Save Tag </a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2330,334 +3429,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A1BCAA-FC4E-49C0-B33B-52035FAEFC59}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7900147" y="979394"/>
-            <a:ext cx="1652868" cy="1459566"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>tag1</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>tag2</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="正方形/長方形 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7EA60E-EBB2-46BD-9EC9-1ED5EBC6CA6E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7887009" y="2634542"/>
-            <a:ext cx="1629877" cy="3243137"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>img1.jpg</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>img2.jpg</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>img3.jpg</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="36" name="グラフィックス 35" descr="家庭">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B235BE28-40C3-45C1-B63F-9EB7F7391431}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="749820" y="4814145"/>
-            <a:ext cx="910503" cy="894911"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>624544</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>23646</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>178777</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C6EFE8-3BF7-4D5D-B5F8-7FAF3BD07924}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9376338" y="1108821"/>
-          <a:ext cx="82661" cy="1423191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>603499</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>149134</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>678677</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>79535</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07490497-CE6B-4665-A495-F0BB4F3D2312}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9355293" y="2737693"/>
-          <a:ext cx="75178" cy="3224930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3365,7 +4137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A141D111-F20C-47A7-ABD7-2AB08E1F1B17}">
-  <dimension ref="B28:J32"/>
+  <dimension ref="B28:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3374,98 +4146,137 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="5" max="5" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="28" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="F30:J30"/>
+  <mergeCells count="2">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,267 +4287,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAB85D7-9604-4076-9E7D-3EF13F10ABBA}">
-  <dimension ref="B28:J41"/>
+  <dimension ref="B28:J46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="28" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="5">
+      <c r="B33" s="2">
         <v>3</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="E33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>6</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="E36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B37" s="5">
+      <c r="B37" s="2">
         <v>7</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="E37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <v>8</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B39" s="5">
+      <c r="B39" s="2">
         <v>9</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B40" s="5">
+      <c r="B40" s="2">
         <v>10</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="B41" s="2">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B43" s="2">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B44" s="2">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B45" s="2">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="F30:J30"/>
+  <mergeCells count="1">
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3747,207 +4680,243 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C580E129-BA32-4B41-ADEF-B0F4432DAA72}">
-  <dimension ref="B7:M17"/>
+  <dimension ref="B7:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="7" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B7:J7"/>
+  <mergeCells count="2">
     <mergeCell ref="B8:J8"/>
-    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.設計/02.機能仕様書/画面設計.xlsx
+++ b/01.設計/02.機能仕様書/画面設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\02.機能仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C50B0-CCFE-4885-A12D-CAE970645729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E187C-20CB-4EA5-BBB8-03AB3FF004D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー画面" sheetId="1" r:id="rId1"/>
@@ -537,19 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在のマウスポインタの座標を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>領域選択をし、タグ付けを行う、画面</t>
     <rPh sb="0" eb="2">
       <t>リョウイキ</t>
@@ -756,6 +743,59 @@
   </si>
   <si>
     <t>Save CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のマウスポインタの座標、ドラッグ中の領域の座標と高さと幅を表示する。
+領域を選択した場合はその領域の座標と高さと幅を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -824,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,12 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -866,6 +900,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,16 +1507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>110379</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31939</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>637056</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>233645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5198132</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>207745</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2274794</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1488,8 +1531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="793938" y="267263"/>
-          <a:ext cx="8953782" cy="5823570"/>
+          <a:off x="637056" y="233645"/>
+          <a:ext cx="14513297" cy="7543238"/>
           <a:chOff x="715495" y="312086"/>
           <a:chExt cx="8953783" cy="5823570"/>
         </a:xfrm>
@@ -3302,7 +3345,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="7855322" y="5109881"/>
-            <a:ext cx="694765" cy="537883"/>
+            <a:ext cx="694765" cy="952501"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3343,7 +3386,53 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>X:100</a:t>
+              <a:t>CurrentPosition</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>X:100,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Y:120</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RegionPosition</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3354,7 +3443,30 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Y:120</a:t>
+              <a:t>X:100,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Y:100</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>w:30, h:40</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3432,6 +3544,131 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3574677</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6577853</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C834ACD-86C1-434D-BF38-87EA12FF4ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124265" y="2420471"/>
+          <a:ext cx="3003176" cy="1983441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5827058</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757259" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F54D3B8-0F63-48B6-BDE4-8205CF68BEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10376646" y="4157382"/>
+          <a:ext cx="757259" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tag1, tag2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4139,7 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A141D111-F20C-47A7-ABD7-2AB08E1F1B17}">
   <dimension ref="B28:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4151,30 +4388,30 @@
   </cols>
   <sheetData>
     <row r="28" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
@@ -4189,13 +4426,13 @@
       <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
@@ -4240,10 +4477,10 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:6" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4252,7 +4489,7 @@
       <c r="E33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4260,7 +4497,7 @@
       <c r="B34" s="2">
         <v>4</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -4269,7 +4506,7 @@
       <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4287,9 +4524,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAB85D7-9604-4076-9E7D-3EF13F10ABBA}">
-  <dimension ref="B28:J46"/>
+  <dimension ref="B28:J54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4300,215 +4537,95 @@
     <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+    <row r="28" spans="7:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+    <row r="29" spans="7:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+    <row r="30" spans="7:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="31" spans="7:10" ht="24" x14ac:dyDescent="0.4">
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="32" spans="7:10" ht="24" x14ac:dyDescent="0.4">
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B35" s="2">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B36" s="2">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B37" s="2">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B38" s="2">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>61</v>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4517,19 +4634,19 @@
     </row>
     <row r="39" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B39" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -4538,19 +4655,19 @@
     </row>
     <row r="40" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B40" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4559,19 +4676,19 @@
     </row>
     <row r="41" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B41" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4580,19 +4697,19 @@
     </row>
     <row r="42" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B42" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4601,75 +4718,211 @@
     </row>
     <row r="43" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B43" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B44" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B45" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B46" s="2">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="24" x14ac:dyDescent="0.4">
+      <c r="B48" s="2">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B49" s="2">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B50" s="2">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B51" s="2">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B52" s="2">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="B53" s="2">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="B54" s="2">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E54" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4682,7 +4935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C580E129-BA32-4B41-ADEF-B0F4432DAA72}">
   <dimension ref="B7:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4692,33 +4947,33 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4736,13 +4991,13 @@
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4761,7 +5016,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -4776,16 +5031,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -4809,7 +5064,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -4833,7 +5088,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>

--- a/01.設計/02.機能仕様書/画面設計.xlsx
+++ b/01.設計/02.機能仕様書/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\02.機能仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E187C-20CB-4EA5-BBB8-03AB3FF004D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B9B2A-949B-46C4-9265-011471EA955D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
   </bookViews>

--- a/01.設計/02.機能仕様書/画面設計.xlsx
+++ b/01.設計/02.機能仕様書/画面設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\02.機能仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694B9B2A-949B-46C4-9265-011471EA955D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9018F-C6FD-4A7F-806C-4CE6887CE4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー画面" sheetId="1" r:id="rId1"/>
@@ -4376,7 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A141D111-F20C-47A7-ABD7-2AB08E1F1B17}">
   <dimension ref="B28:J34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4526,7 +4526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAB85D7-9604-4076-9E7D-3EF13F10ABBA}">
   <dimension ref="B28:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/01.設計/02.機能仕様書/画面設計.xlsx
+++ b/01.設計/02.機能仕様書/画面設計.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\AnnotationTool\01.設計\02.機能仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9018F-C6FD-4A7F-806C-4CE6887CE4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDDF1E-7F34-47F5-9EDA-0AFE1D3570BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1D913B7D-0544-43F0-8CFC-C04854F9992D}"/>
   </bookViews>
   <sheets>
-    <sheet name="メニュー画面" sheetId="1" r:id="rId1"/>
-    <sheet name="領域選択画面" sheetId="2" r:id="rId2"/>
-    <sheet name="タグ追加画面" sheetId="3" r:id="rId3"/>
+    <sheet name="領域選択画面" sheetId="2" r:id="rId1"/>
+    <sheet name="タグ追加画面" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,29 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
-  <si>
-    <t>タグ付けを行う、画像ファイルまたは画像ファイルが格納されたディレクトリを開く</t>
-    <rPh sb="2" eb="3">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>画面説明</t>
     <rPh sb="0" eb="2">
@@ -104,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OpenDirectory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,29 +234,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「画像ファイル」を示す画像</t>
-    <rPh sb="1" eb="3">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリを示す画像</t>
-    <rPh sb="7" eb="8">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガゾウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -864,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,12 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,9 +834,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -928,582 +869,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>67232</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>203174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>146835</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91890</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9200AC7-1A89-4E4B-8AD8-AA604817143B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="750791" y="203174"/>
-          <a:ext cx="8932250" cy="5771804"/>
-          <a:chOff x="683559" y="225584"/>
-          <a:chExt cx="8932248" cy="5771804"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="18" name="グループ化 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9A2ED7-24C9-4BC1-A3E5-68F5CCF63BA5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="683559" y="225584"/>
-            <a:ext cx="8932248" cy="5771804"/>
-            <a:chOff x="687457" y="225584"/>
-            <a:chExt cx="8982917" cy="5893607"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="11" name="グループ化 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B830C4C4-6830-42E2-BB04-B1B91C210626}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="687457" y="234043"/>
-              <a:ext cx="8975033" cy="5885148"/>
-              <a:chOff x="687457" y="234043"/>
-              <a:chExt cx="8975033" cy="5885148"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="2" name="正方形/長方形 1">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D520A26-75D0-4A70-B997-F34336CAAD61}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="687457" y="240196"/>
-                <a:ext cx="8975033" cy="5878995"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="正方形/長方形 6">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C93E87-5391-4BF7-8BCB-3FFAB8985C64}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="687457" y="234043"/>
-                <a:ext cx="8973568" cy="280366"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>AnnotationTool</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="正方形/長方形 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A29F74-7358-4E61-8456-1A946BBE5D51}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9337642" y="229914"/>
-              <a:ext cx="332732" cy="276752"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>×</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="正方形/長方形 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E5C568-DA09-401D-BA72-94BC27F3DD6C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9035917" y="225584"/>
-              <a:ext cx="329345" cy="276752"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>□</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="正方形/長方形 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1177DACD-381E-4231-B231-96D62CFF6D2A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8700019" y="226450"/>
-              <a:ext cx="332734" cy="276752"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>ー</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="グラフィックス 40" descr="イメージ">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20656A0A-7B1B-4E53-8FCE-06D2F4C4AB05}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2145926" y="1186143"/>
-            <a:ext cx="2498352" cy="2543735"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="グラフィックス 30" descr="開いたフォルダー">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78E9585-8AA3-4364-9E0F-4B9BB4243DC1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5573245" y="1233768"/>
-            <a:ext cx="3162860" cy="2410385"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544434F-BC16-4810-A3CA-66577FB0BFE2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2024343" y="4191000"/>
-            <a:ext cx="2458010" cy="686921"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OpenFile</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BD6748-52A1-4A63-B888-6E46EE42D696}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5763746" y="4210050"/>
-            <a:ext cx="2458010" cy="686921"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OpenDirectory</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3672,7 +3037,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4373,160 +3738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A141D111-F20C-47A7-ABD7-2AB08E1F1B17}">
-  <dimension ref="B28:J34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="28" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAB85D7-9604-4076-9E7D-3EF13F10ABBA}">
   <dimension ref="B28:J54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4538,22 +3753,22 @@
   </cols>
   <sheetData>
     <row r="28" spans="7:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="7:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="7:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="7:10" ht="24" x14ac:dyDescent="0.4">
       <c r="G31" s="2"/>
@@ -4586,26 +3801,26 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="B37" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4613,19 +3828,19 @@
     </row>
     <row r="38" spans="2:10" ht="24" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>34</v>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4637,16 +3852,16 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -4658,16 +3873,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4679,16 +3894,16 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4700,16 +3915,16 @@
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4721,16 +3936,16 @@
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="24" x14ac:dyDescent="0.4">
@@ -4738,16 +3953,16 @@
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="24" x14ac:dyDescent="0.4">
@@ -4755,16 +3970,16 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="24" x14ac:dyDescent="0.4">
@@ -4772,16 +3987,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="24" x14ac:dyDescent="0.4">
@@ -4789,16 +4004,16 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="24" x14ac:dyDescent="0.4">
@@ -4806,16 +4021,16 @@
         <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="24" x14ac:dyDescent="0.4">
@@ -4823,16 +4038,16 @@
         <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="24" x14ac:dyDescent="0.4">
@@ -4840,16 +4055,16 @@
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="24" x14ac:dyDescent="0.4">
@@ -4857,16 +4072,16 @@
         <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="24" x14ac:dyDescent="0.4">
@@ -4874,16 +4089,16 @@
         <v>14</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="24" x14ac:dyDescent="0.4">
@@ -4891,16 +4106,16 @@
         <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="48" x14ac:dyDescent="0.4">
@@ -4908,16 +4123,16 @@
         <v>16</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4931,13 +4146,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C580E129-BA32-4B41-ADEF-B0F4432DAA72}">
   <dimension ref="B7:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4947,57 +4160,57 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="24" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5007,16 +4220,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5031,16 +4244,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5055,16 +4268,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5079,16 +4292,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
